--- a/data/trans_dic/P25A$otro-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,84</t>
+          <t>0,97; 4,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,18</t>
+          <t>0,79; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,39</t>
+          <t>6,42; 15,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,0</t>
+          <t>0,0; 6,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,02</t>
+          <t>1,43; 12,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 30,26</t>
+          <t>3,03; 31,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,6</t>
+          <t>1,08; 4,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,72</t>
+          <t>1,16; 4,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 14,68</t>
+          <t>6,79; 14,9</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,56</t>
+          <t>0,44; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,16</t>
+          <t>1,1; 4,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,53</t>
+          <t>5,89; 12,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 22,28</t>
+          <t>9,96; 21,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,3</t>
+          <t>3,26; 9,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 18,49</t>
+          <t>8,57; 18,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,18</t>
+          <t>4,79; 10,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,51</t>
+          <t>2,28; 5,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,25</t>
+          <t>8,0; 13,4</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,45</t>
+          <t>0,97; 9,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 6,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 19,37</t>
+          <t>4,56; 17,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 16,09</t>
+          <t>1,93; 19,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,53</t>
+          <t>0,0; 8,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 22,89</t>
+          <t>7,2; 22,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,28</t>
+          <t>1,88; 9,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,39</t>
+          <t>0,56; 5,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 18,15</t>
+          <t>8,0; 18,32</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,76</t>
+          <t>1,35; 3,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,35</t>
+          <t>1,3; 3,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,06</t>
+          <t>7,5; 12,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 15,37</t>
+          <t>7,25; 15,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,53</t>
+          <t>2,87; 7,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,09</t>
+          <t>9,99; 17,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,37</t>
+          <t>3,48; 6,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,02</t>
+          <t>2,13; 4,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,95</t>
+          <t>8,77; 12,78</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7526</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7241</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20959</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4927</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8325</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10342</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25886</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2930; 14466</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2957; 16491</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13477; 31500</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3332</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>986; 8308</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1141; 11734</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3790; 16049</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5113; 20792</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16814; 36873</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7996</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26908</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23227</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14009</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25219</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27262</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52127</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1038; 10159</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3842; 14923</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17778; 36979</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15056; 33244</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7834; 23346</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17234; 36611</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18609; 39329</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13425; 32720</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40233; 67408</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2754</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9459</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3460</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13115</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6214</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22573</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>819; 8056</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6696</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4086; 16037</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>990; 9801</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6289</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6847; 21162</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2548; 13226</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>976; 9867</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14768; 33832</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57326</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27487</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19143</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>43260</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41800</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36288</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>100586</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8406; 24022</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10634; 29115</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45105; 74005</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18170; 38337</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11097; 28684</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33337; 57623</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30420; 56623</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25667; 51431</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>82011; 119549</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$otro-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
